--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/77_GenericTableWorkbookAdvanced.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/77_GenericTableWorkbookAdvanced.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Employee Data" sheetId="1" r:id="R8cddd704f60f407b"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Employee Data" sheetId="1" r:id="R87b1d5d0deb2466f"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/77_GenericTableWorkbookAdvanced.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/77_GenericTableWorkbookAdvanced.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Employee Data" sheetId="1" r:id="R87b1d5d0deb2466f"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Employee Data" sheetId="1" r:id="R51940039361a4ce2"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/77_GenericTableWorkbookAdvanced.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/77_GenericTableWorkbookAdvanced.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Employee Data" sheetId="1" r:id="R51940039361a4ce2"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Employee Data" sheetId="1" r:id="R56abc04a5b904cec"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/77_GenericTableWorkbookAdvanced.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/77_GenericTableWorkbookAdvanced.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Employee Data" sheetId="1" r:id="R56abc04a5b904cec"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Employee Data" sheetId="1" r:id="R6b5bbba3d6bf4e5d"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/77_GenericTableWorkbookAdvanced.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/77_GenericTableWorkbookAdvanced.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Employee Data" sheetId="1" r:id="R6b5bbba3d6bf4e5d"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Employee Data" sheetId="1" r:id="Rdda733d680124cfd"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/77_GenericTableWorkbookAdvanced.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/77_GenericTableWorkbookAdvanced.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Employee Data" sheetId="1" r:id="Rdda733d680124cfd"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Employee Data" sheetId="1" r:id="R3f7a5777e9b04b4a"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/77_GenericTableWorkbookAdvanced.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/77_GenericTableWorkbookAdvanced.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Employee Data" sheetId="1" r:id="R3f7a5777e9b04b4a"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Employee Data" sheetId="1" r:id="R1170f19d9eff4acd"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/77_GenericTableWorkbookAdvanced.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/77_GenericTableWorkbookAdvanced.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Employee Data" sheetId="1" r:id="R1170f19d9eff4acd"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Employee Data" sheetId="1" r:id="Re53a4525b8fd4770"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/77_GenericTableWorkbookAdvanced.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/77_GenericTableWorkbookAdvanced.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Employee Data" sheetId="1" r:id="Re53a4525b8fd4770"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Employee Data" sheetId="1" r:id="R8ab6b0d5dc084eb9"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/77_GenericTableWorkbookAdvanced.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/77_GenericTableWorkbookAdvanced.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Employee Data" sheetId="1" r:id="R8ab6b0d5dc084eb9"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Employee Data" sheetId="1" r:id="Ra26c0dd6772e4252"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/77_GenericTableWorkbookAdvanced.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/77_GenericTableWorkbookAdvanced.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Employee Data" sheetId="1" r:id="Ra26c0dd6772e4252"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Employee Data" sheetId="1" r:id="R92226b2a03b94675"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/77_GenericTableWorkbookAdvanced.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/77_GenericTableWorkbookAdvanced.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Employee Data" sheetId="1" r:id="R92226b2a03b94675"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Employee Data" sheetId="1" r:id="Rb9cbce662d624fc0"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/77_GenericTableWorkbookAdvanced.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/77_GenericTableWorkbookAdvanced.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Employee Data" sheetId="1" r:id="Rb9cbce662d624fc0"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Employee Data" sheetId="1" r:id="Raa2c0e3c897d47c2"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/77_GenericTableWorkbookAdvanced.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/77_GenericTableWorkbookAdvanced.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Employee Data" sheetId="1" r:id="Raa2c0e3c897d47c2"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Employee Data" sheetId="1" r:id="R047e8407c71a4b92"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/77_GenericTableWorkbookAdvanced.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/77_GenericTableWorkbookAdvanced.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Employee Data" sheetId="1" r:id="R047e8407c71a4b92"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Employee Data" sheetId="1" r:id="R3ae98a25bdc74ae6"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
